--- a/tool/sqlparser/CRUD.xlsx
+++ b/tool/sqlparser/CRUD.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="CRUD" sheetId="2" r:id="rId4"/>
+    <sheet name="CRUD" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -47,15 +46,24 @@
     <t>guest_token.sql</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>GetGuestTokenByMailWithinExpirationDate</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>GetGuestTokenByTokenWithinExpirationDate</t>
   </si>
   <si>
     <t>DeleteGuestToken</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>CreateGuildWithRegistering</t>
   </si>
   <si>
@@ -63,6 +71,9 @@
   </si>
   <si>
     <t>UpdateGuildWithRegistered</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
   <si>
     <t>GetGuildByID</t>
@@ -389,154 +400,177 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
-  </sheetViews>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
